--- a/data/trans_camb/P1001-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,71</t>
+          <t>-2,73; 2,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,44</t>
+          <t>-2,28; 3,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,78</t>
+          <t>-1,63; 4,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,08</t>
+          <t>-3,69; 4,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,07</t>
+          <t>-3,91; 4,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,03</t>
+          <t>-2,97; 4,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 2,55</t>
+          <t>-1,96; 2,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,8</t>
+          <t>-1,82; 2,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,48</t>
+          <t>-1,11; 3,4</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 94,49</t>
+          <t>-49,59; 99,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,23; 107,64</t>
+          <t>-42,19; 112,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 153,85</t>
+          <t>-30,58; 153,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 102,21</t>
+          <t>-40,98; 94,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 85,15</t>
+          <t>-44,03; 92,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 86,84</t>
+          <t>-33,86; 96,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 62,76</t>
+          <t>-31,57; 65,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 67,61</t>
+          <t>-29,84; 66,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 81,9</t>
+          <t>-18,23; 79,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,29</t>
+          <t>-1,3; 5,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 4,14</t>
+          <t>-2,36; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,03</t>
+          <t>-4,65; 0,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 4,65</t>
+          <t>-3,75; 5,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,69</t>
+          <t>-5,88; 2,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,52</t>
+          <t>-3,27; 4,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,96</t>
+          <t>-1,52; 4,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,1</t>
+          <t>-3,48; 1,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 1,84</t>
+          <t>-3,12; 1,58</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 194,15</t>
+          <t>-23,38; 204,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 153,06</t>
+          <t>-44,22; 135,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,68; 49,77</t>
+          <t>-72,08; 34,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 69,53</t>
+          <t>-36,8; 77,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,06; 28,09</t>
+          <t>-54,78; 39,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 71,52</t>
+          <t>-30,19; 75,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 77,67</t>
+          <t>-20,7; 81,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 41,97</t>
+          <t>-42,78; 40,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 41,81</t>
+          <t>-40,19; 32,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,38</t>
+          <t>-1,01; 5,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,83</t>
+          <t>-2,13; 4,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 2,87</t>
+          <t>-5,68; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 13,78</t>
+          <t>-0,3; 13,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 11,79</t>
+          <t>-4,22; 10,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 5,43</t>
+          <t>-6,77; 5,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 7,04</t>
+          <t>1,0; 6,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,4</t>
+          <t>-1,55; 4,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,37</t>
+          <t>-6,23; 2,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 116,58</t>
+          <t>-15,35; 109,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 84,38</t>
+          <t>-29,16; 86,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,64; 51,73</t>
+          <t>-74,18; 45,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 190,46</t>
+          <t>-3,44; 178,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 153,15</t>
+          <t>-33,16; 145,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,14; 71,44</t>
+          <t>-46,28; 79,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 117,66</t>
+          <t>10,82; 111,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 74,02</t>
+          <t>-18,4; 72,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,29; 34,62</t>
+          <t>-69,35; 36,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,52</t>
+          <t>-0,9; 3,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,22</t>
+          <t>-3,79; 0,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 0,77</t>
+          <t>-3,31; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 6,1</t>
+          <t>-0,58; 6,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,28</t>
+          <t>-0,79; 5,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 0,5</t>
+          <t>-7,17; 0,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,75</t>
+          <t>-0,07; 3,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,53</t>
+          <t>-1,88; 1,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; -0,08</t>
+          <t>-3,97; -0,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 52,01</t>
+          <t>-11,14; 54,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 3,41</t>
+          <t>-44,71; 2,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 11,54</t>
+          <t>-37,62; 14,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 75,44</t>
+          <t>-6,32; 77,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 62,63</t>
+          <t>-7,22; 69,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,4; 4,02</t>
+          <t>-61,73; 0,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 49,94</t>
+          <t>-2,0; 49,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 19,51</t>
+          <t>-20,34; 21,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-44,93; -1,62</t>
+          <t>-45,81; -1,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,84</t>
+          <t>-4,18; 2,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 5,45</t>
+          <t>-1,92; 5,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,53</t>
+          <t>-1,64; 5,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,99</t>
+          <t>5,94; 13,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 10,8</t>
+          <t>3,31; 10,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 7,31</t>
+          <t>-1,17; 7,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,66</t>
+          <t>2,93; 8,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,9</t>
+          <t>1,78; 7,14</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,74</t>
+          <t>0,02; 5,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,36; 67,77</t>
+          <t>-52,05; 63,53</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 136,84</t>
+          <t>-22,7; 114,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 127,61</t>
+          <t>-22,21; 135,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>48,64; 173,24</t>
+          <t>51,11; 175,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,58; 131,49</t>
+          <t>26,43; 140,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 92,49</t>
+          <t>-9,47; 90,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>31,3; 121,93</t>
+          <t>29,38; 116,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,57; 97,31</t>
+          <t>17,52; 100,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,49; 82,28</t>
+          <t>0,86; 80,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 3,11</t>
+          <t>-3,19; 3,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,22</t>
+          <t>-3,21; 3,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 5,09</t>
+          <t>-3,13; 5,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,76</t>
+          <t>3,06; 8,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,85</t>
+          <t>0,87; 6,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,71; 8,21</t>
+          <t>2,85; 8,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,84</t>
+          <t>2,51; 7,07</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,83</t>
+          <t>0,38; 4,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,61</t>
+          <t>1,66; 6,25</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,97; 137,78</t>
+          <t>-62,61; 157,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,24; 148,73</t>
+          <t>-61,78; 152,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 228,6</t>
+          <t>-66,47; 283,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>29,62; 98,47</t>
+          <t>28,69; 103,8</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,57; 69,27</t>
+          <t>8,05; 74,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>26,51; 95,83</t>
+          <t>26,06; 98,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>25,65; 87,5</t>
+          <t>26,26; 92,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,01; 63,7</t>
+          <t>4,09; 62,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>15,98; 84,43</t>
+          <t>17,39; 80,28</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,26</t>
+          <t>-0,34; 2,27</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,23</t>
+          <t>-1,07; 1,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,87</t>
+          <t>-1,98; 0,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,76</t>
+          <t>3,73; 6,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,4</t>
+          <t>1,32; 4,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,93</t>
+          <t>-0,82; 3,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,06</t>
+          <t>2,24; 4,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,51</t>
+          <t>0,53; 2,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,53</t>
+          <t>-0,95; 1,45</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 42,63</t>
+          <t>-5,25; 41,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 22,75</t>
+          <t>-16,55; 24,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 15,7</t>
+          <t>-29,36; 13,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>35,9; 78,15</t>
+          <t>37,08; 78,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>13,48; 51,08</t>
+          <t>13,89; 51,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 34,12</t>
+          <t>-7,66; 35,31</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>25,68; 56,17</t>
+          <t>26,89; 57,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>6,49; 34,22</t>
+          <t>6,33; 33,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 20,97</t>
+          <t>-11,76; 19,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1001-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
